--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="Workbook________"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Рабочий стол\КУРСЫ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-1050" yWindow="-30" windowWidth="20730" windowHeight="11760" tabRatio="682" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -18,8 +13,7 @@
   <definedNames>
     <definedName name="Result">Sheet1!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>passed</t>
   </si>
@@ -281,11 +275,14 @@
   <si>
     <t>Высветится предупреждающее сообщение о не найденом клиенте.</t>
   </si>
+  <si>
+    <t>пройден</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -569,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -674,6 +671,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -683,27 +701,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1045,14 +1043,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -1096,15 +1094,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="11" ySplit="7" topLeftCell="AO21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="AO24" sqref="AO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1130,6 +1128,7 @@
     <col min="19" max="19" width="2.42578125" customWidth="1"/>
     <col min="20" max="20" width="13.28515625" customWidth="1"/>
     <col min="21" max="21" width="2.42578125" customWidth="1"/>
+    <col min="41" max="41" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:124">
@@ -1277,6 +1276,9 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
+      <c r="AO4" s="50">
+        <v>44053</v>
+      </c>
     </row>
     <row r="5" spans="1:124" ht="26.1" customHeight="1">
       <c r="A5" s="12"/>
@@ -1320,43 +1322,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="47" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="47" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="40"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="40"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="40"/>
+      <c r="T6" s="47"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1366,29 +1368,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="42"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="40"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="40"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="40"/>
+      <c r="P7" s="47"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="40"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="40"/>
+      <c r="T7" s="47"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1433,6 +1435,9 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
+      <c r="AO8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:124" ht="75" customHeight="1">
       <c r="A9" s="12"/>
@@ -1469,6 +1474,9 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
+      <c r="AO9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:124" ht="111" customHeight="1">
       <c r="A10" s="12"/>
@@ -1505,6 +1513,9 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
+      <c r="AO10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:124" ht="102" customHeight="1">
       <c r="A11" s="12"/>
@@ -1555,7 +1566,9 @@
       <c r="AL11" s="33"/>
       <c r="AM11" s="34"/>
       <c r="AN11" s="33"/>
-      <c r="AO11" s="34"/>
+      <c r="AO11" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="AP11" s="33"/>
       <c r="AQ11" s="34"/>
       <c r="AR11" s="33"/>
@@ -1675,6 +1688,9 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
+      <c r="AO12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:124" ht="63" customHeight="1">
       <c r="A13" s="12"/>
@@ -1711,6 +1727,9 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
+      <c r="AO13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:124" ht="77.099999999999994" customHeight="1">
       <c r="A14" s="12"/>
@@ -1747,6 +1766,9 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
+      <c r="AO14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:124" ht="50.1" customHeight="1">
       <c r="A15" s="12"/>
@@ -1782,6 +1804,9 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
+      <c r="AO15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:124" ht="53.1" customHeight="1">
       <c r="A16" s="12"/>
@@ -1818,8 +1843,11 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="45" customHeight="1">
+      <c r="AO16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="45" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="3">
         <v>10</v>
@@ -1854,8 +1882,11 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="48.95" customHeight="1">
+      <c r="AO17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="48.95" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="3">
         <v>11</v>
@@ -1890,8 +1921,11 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="45">
+      <c r="AO18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="45">
       <c r="A19" s="12"/>
       <c r="B19" s="3">
         <v>12</v>
@@ -1926,8 +1960,11 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="42" customHeight="1">
+      <c r="AO19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="42" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="3">
         <v>13</v>
@@ -1962,8 +1999,11 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="60">
+      <c r="AO20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="60">
       <c r="A21" s="12"/>
       <c r="B21" s="3">
         <v>14</v>
@@ -1998,8 +2038,11 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="150">
+      <c r="AO21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="150">
       <c r="A22" s="12"/>
       <c r="B22" s="3">
         <v>15</v>
@@ -2034,8 +2077,11 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="135">
+      <c r="AO22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="135">
       <c r="A23" s="12"/>
       <c r="B23" s="3">
         <v>16</v>
@@ -2070,8 +2116,11 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AO23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="12"/>
       <c r="B24" s="3">
         <v>17</v>
@@ -2101,7 +2150,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:41">
       <c r="A25" s="12"/>
       <c r="B25" s="3">
         <v>18</v>
@@ -2131,7 +2180,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:41">
       <c r="A26" s="12"/>
       <c r="B26" s="3">
         <v>19</v>
@@ -2161,7 +2210,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:41">
       <c r="A27" s="12"/>
       <c r="B27" s="3">
         <v>20</v>
@@ -2191,7 +2240,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:41">
       <c r="A28" s="12"/>
       <c r="B28" s="3">
         <v>21</v>
@@ -2221,7 +2270,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:41">
       <c r="A29" s="12"/>
       <c r="B29" s="3">
         <v>22</v>
@@ -2251,7 +2300,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:41">
       <c r="A30" s="12"/>
       <c r="B30" s="3">
         <v>23</v>
@@ -2281,7 +2330,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:41">
       <c r="A31" s="12"/>
       <c r="B31" s="3">
         <v>24</v>
@@ -2311,7 +2360,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:41">
       <c r="A32" s="12"/>
       <c r="B32" s="3">
         <v>25</v>
@@ -3056,12 +3105,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3069,6 +3112,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N12:N41 N8:N10 L8:L10 R8:R10 P8:P10 T8:T10 T12:T41 P12:P41 R12:R41 L12:L41">
